--- a/natmiOut/OldD0/LR-pairs_lrc2p/Penk-Ogfr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Penk-Ogfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Penk</t>
   </si>
   <si>
     <t>Ogfr</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.277887954797402</v>
+        <v>0.3329863333333333</v>
       </c>
       <c r="H2">
-        <v>0.277887954797402</v>
+        <v>0.9989589999999999</v>
       </c>
       <c r="I2">
-        <v>0.002072087891895585</v>
+        <v>0.002397412224472272</v>
       </c>
       <c r="J2">
-        <v>0.002072087891895585</v>
+        <v>0.002397412224472272</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.5552360525092</v>
+        <v>12.91824966666667</v>
       </c>
       <c r="N2">
-        <v>11.5552360525092</v>
+        <v>38.754749</v>
       </c>
       <c r="O2">
-        <v>0.5421399423690525</v>
+        <v>0.5690183414937939</v>
       </c>
       <c r="P2">
-        <v>0.5421399423690525</v>
+        <v>0.5690183414937939</v>
       </c>
       <c r="Q2">
-        <v>3.211060913832987</v>
+        <v>4.301600589587889</v>
       </c>
       <c r="R2">
-        <v>3.211060913832987</v>
+        <v>38.714405306291</v>
       </c>
       <c r="S2">
-        <v>0.001123361610295884</v>
+        <v>0.00136417152784616</v>
       </c>
       <c r="T2">
-        <v>0.001123361610295884</v>
+        <v>0.001364171527846159</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.277887954797402</v>
+        <v>0.3329863333333333</v>
       </c>
       <c r="H3">
-        <v>0.277887954797402</v>
+        <v>0.9989589999999999</v>
       </c>
       <c r="I3">
-        <v>0.002072087891895585</v>
+        <v>0.002397412224472272</v>
       </c>
       <c r="J3">
-        <v>0.002072087891895585</v>
+        <v>0.002397412224472272</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.57212857223858</v>
+        <v>6.587813999999999</v>
       </c>
       <c r="N3">
-        <v>6.57212857223858</v>
+        <v>19.763442</v>
       </c>
       <c r="O3">
-        <v>0.3083462241017331</v>
+        <v>0.2901776241422384</v>
       </c>
       <c r="P3">
-        <v>0.3083462241017331</v>
+        <v>0.2901776241422384</v>
       </c>
       <c r="Q3">
-        <v>1.826315367604949</v>
+        <v>2.193652028542</v>
       </c>
       <c r="R3">
-        <v>1.826315367604949</v>
+        <v>19.742868256878</v>
       </c>
       <c r="S3">
-        <v>0.0006389204774729239</v>
+        <v>0.0006956753833869226</v>
       </c>
       <c r="T3">
-        <v>0.0006389204774729239</v>
+        <v>0.0006956753833869225</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.277887954797402</v>
+        <v>0.3329863333333333</v>
       </c>
       <c r="H4">
-        <v>0.277887954797402</v>
+        <v>0.9989589999999999</v>
       </c>
       <c r="I4">
-        <v>0.002072087891895585</v>
+        <v>0.002397412224472272</v>
       </c>
       <c r="J4">
-        <v>0.002072087891895585</v>
+        <v>0.002397412224472272</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.18675586232596</v>
+        <v>3.196631</v>
       </c>
       <c r="N4">
-        <v>3.18675586232596</v>
+        <v>9.589893</v>
       </c>
       <c r="O4">
-        <v>0.1495138335292144</v>
+        <v>0.1408040343639677</v>
       </c>
       <c r="P4">
-        <v>0.1495138335292144</v>
+        <v>0.1408040343639677</v>
       </c>
       <c r="Q4">
-        <v>0.8855610690203923</v>
+        <v>1.064434435709667</v>
       </c>
       <c r="R4">
-        <v>0.8855610690203923</v>
+        <v>9.579909921386999</v>
       </c>
       <c r="S4">
-        <v>0.0003098058041267773</v>
+        <v>0.0003375653132391901</v>
       </c>
       <c r="T4">
-        <v>0.0003098058041267773</v>
+        <v>0.00033756531323919</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>133.83223154558</v>
+        <v>138.2516836666667</v>
       </c>
       <c r="H5">
-        <v>133.83223154558</v>
+        <v>414.755051</v>
       </c>
       <c r="I5">
-        <v>0.9979279121081045</v>
+        <v>0.9953750148194476</v>
       </c>
       <c r="J5">
-        <v>0.9979279121081045</v>
+        <v>0.9953750148194476</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.5552360525092</v>
+        <v>12.91824966666667</v>
       </c>
       <c r="N5">
-        <v>11.5552360525092</v>
+        <v>38.754749</v>
       </c>
       <c r="O5">
-        <v>0.5421399423690525</v>
+        <v>0.5690183414937939</v>
       </c>
       <c r="P5">
-        <v>0.5421399423690525</v>
+        <v>0.5690183414937939</v>
       </c>
       <c r="Q5">
-        <v>1546.463026943245</v>
+        <v>1785.969766443022</v>
       </c>
       <c r="R5">
-        <v>1546.463026943245</v>
+        <v>16073.7278979872</v>
       </c>
       <c r="S5">
-        <v>0.5410165807587567</v>
+        <v>0.5663866400969226</v>
       </c>
       <c r="T5">
-        <v>0.5410165807587567</v>
+        <v>0.5663866400969226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>133.83223154558</v>
+        <v>138.2516836666667</v>
       </c>
       <c r="H6">
-        <v>133.83223154558</v>
+        <v>414.755051</v>
       </c>
       <c r="I6">
-        <v>0.9979279121081045</v>
+        <v>0.9953750148194476</v>
       </c>
       <c r="J6">
-        <v>0.9979279121081045</v>
+        <v>0.9953750148194476</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.57212857223858</v>
+        <v>6.587813999999999</v>
       </c>
       <c r="N6">
-        <v>6.57212857223858</v>
+        <v>19.763442</v>
       </c>
       <c r="O6">
-        <v>0.3083462241017331</v>
+        <v>0.2901776241422384</v>
       </c>
       <c r="P6">
-        <v>0.3083462241017331</v>
+        <v>0.2901776241422384</v>
       </c>
       <c r="Q6">
-        <v>879.5626328271557</v>
+        <v>910.7763771828378</v>
       </c>
       <c r="R6">
-        <v>879.5626328271557</v>
+        <v>8196.987394645541</v>
       </c>
       <c r="S6">
-        <v>0.3077073036242602</v>
+        <v>0.2888355569308526</v>
       </c>
       <c r="T6">
-        <v>0.3077073036242602</v>
+        <v>0.2888355569308526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>138.2516836666667</v>
+      </c>
+      <c r="H7">
+        <v>414.755051</v>
+      </c>
+      <c r="I7">
+        <v>0.9953750148194476</v>
+      </c>
+      <c r="J7">
+        <v>0.9953750148194476</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.196631</v>
+      </c>
+      <c r="N7">
+        <v>9.589893</v>
+      </c>
+      <c r="O7">
+        <v>0.1408040343639677</v>
+      </c>
+      <c r="P7">
+        <v>0.1408040343639677</v>
+      </c>
+      <c r="Q7">
+        <v>441.9396178110603</v>
+      </c>
+      <c r="R7">
+        <v>3977.456560299543</v>
+      </c>
+      <c r="S7">
+        <v>0.1401528177916724</v>
+      </c>
+      <c r="T7">
+        <v>0.1401528177916724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>133.83223154558</v>
-      </c>
-      <c r="H7">
-        <v>133.83223154558</v>
-      </c>
-      <c r="I7">
-        <v>0.9979279121081045</v>
-      </c>
-      <c r="J7">
-        <v>0.9979279121081045</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.18675586232596</v>
-      </c>
-      <c r="N7">
-        <v>3.18675586232596</v>
-      </c>
-      <c r="O7">
-        <v>0.1495138335292144</v>
-      </c>
-      <c r="P7">
-        <v>0.1495138335292144</v>
-      </c>
-      <c r="Q7">
-        <v>426.4906484460423</v>
-      </c>
-      <c r="R7">
-        <v>426.4906484460423</v>
-      </c>
-      <c r="S7">
-        <v>0.1492040277250876</v>
-      </c>
-      <c r="T7">
-        <v>0.1492040277250876</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3093966666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.92819</v>
+      </c>
+      <c r="I8">
+        <v>0.002227572956080197</v>
+      </c>
+      <c r="J8">
+        <v>0.002227572956080197</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>12.91824966666667</v>
+      </c>
+      <c r="N8">
+        <v>38.754749</v>
+      </c>
+      <c r="O8">
+        <v>0.5690183414937939</v>
+      </c>
+      <c r="P8">
+        <v>0.5690183414937939</v>
+      </c>
+      <c r="Q8">
+        <v>3.996863386034445</v>
+      </c>
+      <c r="R8">
+        <v>35.97177047431</v>
+      </c>
+      <c r="S8">
+        <v>0.001267529869025182</v>
+      </c>
+      <c r="T8">
+        <v>0.001267529869025182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3093966666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.92819</v>
+      </c>
+      <c r="I9">
+        <v>0.002227572956080197</v>
+      </c>
+      <c r="J9">
+        <v>0.002227572956080197</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.587813999999999</v>
+      </c>
+      <c r="N9">
+        <v>19.763442</v>
+      </c>
+      <c r="O9">
+        <v>0.2901776241422384</v>
+      </c>
+      <c r="P9">
+        <v>0.2901776241422384</v>
+      </c>
+      <c r="Q9">
+        <v>2.03824769222</v>
+      </c>
+      <c r="R9">
+        <v>18.34422922998</v>
+      </c>
+      <c r="S9">
+        <v>0.0006463918279988543</v>
+      </c>
+      <c r="T9">
+        <v>0.0006463918279988543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3093966666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.92819</v>
+      </c>
+      <c r="I10">
+        <v>0.002227572956080197</v>
+      </c>
+      <c r="J10">
+        <v>0.002227572956080197</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.196631</v>
+      </c>
+      <c r="N10">
+        <v>9.589893</v>
+      </c>
+      <c r="O10">
+        <v>0.1408040343639677</v>
+      </c>
+      <c r="P10">
+        <v>0.1408040343639677</v>
+      </c>
+      <c r="Q10">
+        <v>0.9890269759633333</v>
+      </c>
+      <c r="R10">
+        <v>8.90124278367</v>
+      </c>
+      <c r="S10">
+        <v>0.0003136512590561613</v>
+      </c>
+      <c r="T10">
+        <v>0.0003136512590561613</v>
       </c>
     </row>
   </sheetData>
